--- a/Main/output1.xlsx
+++ b/Main/output1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:AN12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,14 +439,2374 @@
           <t>Test No.</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>0 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>0 0.5</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>0.8 0.5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>0.8 0.0</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>0.0 0.25</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>0.4 0.5</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>0.8 0.25</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>0.4 0.0</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>0.1 0.4</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>0.3 0.4</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>0.5 0.4</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>0.7 0.4</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>0.1 0.1</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>0.3 0.1</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>0.5 0.1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>0.7 0.1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>0.15 0.3</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>0.65 0.2</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>0.4 0.25</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9.350470244656439</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-90.64952975534355</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-66.7253342365398</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-98.52527063673058</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>35.32435357573885</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>135.32435357573885</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>105.40823702807727</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>137.20817342826805</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>-27.331901118565337</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-89.6759658860336</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-14.8730871706436</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>10.599978800063596</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>72.68348439759511</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>135.0275491650634</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>53.17645905644463</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>27.70339308573743</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>15.806001551293814</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>-15.44233512632216</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>-14.834111488269276</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-15.883716233145408</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>14.066829859565692</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>48.41973487282774</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>39.38712360678394</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>109.8562510394798</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>3.6440635728259023</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>-66.82506385986999</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>27.76915605006162</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>-6.583748963200427</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>56.7773764115209</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>57.826981156397025</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>86.19743488951698</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>117.44577156713297</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>-18.686281557529004</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>-55.22052134317369</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>136.15715381750738</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>172.69139360315208</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>22.087649521142982</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>22.087649521142982</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9.503926570397162</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-90.49607342960282</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-20.279219645682893</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-52.07915604587369</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>35.32435357573885</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>135.32435357573885</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>106.12436654820061</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>137.9243029483914</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-27.331901118565337</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-89.6759658860336</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-237.58936792900366</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>-212.11630195829648</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>72.68348439759511</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>135.0275491650634</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>52.716090079222475</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>27.24302410851528</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>31.305090451106192</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.05675377349022118</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-14.834111488269276</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-15.883716233145408</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>13.913373533824974</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>48.266278547087026</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>-16.624435288577637</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>53.844692144118234</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>43.38925193967151</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>-27.079875493024367</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>44.70050399012069</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>10.347598976858642</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>56.368159542878985</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>57.417764287755105</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>86.24858699809722</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>117.49692367571318</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>-18.788585774689484</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>-55.32282556033417</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>64.95341867381488</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>101.48765845945957</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>22.087649521142982</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>22.087649521142982</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>9.350470244656439</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-90.64952975534355</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-66.77648634512003</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-98.57642274531082</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>35.42665779289932</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>135.42665779289933</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>106.43127919968202</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>138.23121559987283</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>-27.383053227145588</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-89.72711799461385</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>-14.924239279223839</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>10.548826691483358</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>72.63233228901487</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>134.9763970564831</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>53.02300273070391</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>27.54993675999671</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>-40.20555734406776</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-71.45389402168372</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-14.936415705429754</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-15.986020450305885</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>14.117981968145928</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>48.470886981407986</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>39.38712360678394</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>109.8562510394798</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>59.09294927380485</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>-11.376178158891037</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>47.2069573105524</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>12.854052297290346</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>56.7773764115209</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>57.826981156397025</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>86.24858699809722</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>117.49692367571318</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>8.117423338516165</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>-28.416816447128518</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>65.00457078239512</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>101.53881056803979</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>21.729584761081313</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>21.729584761081313</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>81.21918279989207</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-18.780817200107926</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-66.77648634512003</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-98.57642274531082</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>35.37550568431909</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>135.37550568431908</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>110.88151264616282</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>142.68144904635363</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>-27.43420533572582</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>-89.77827010319407</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>-13.18506758749572</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>12.287998383211479</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>12.426300490073713</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>74.77036525754198</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>53.17645905644463</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>27.70339308573743</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-40.20555734406776</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-71.45389402168372</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-14.936415705429754</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-15.986020450305885</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>-3.17143073197481</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>31.18147428128724</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>39.28481938962346</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>109.75394682231932</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>3.5929114642456663</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>-66.87621596845021</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>27.820308158641865</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>-6.532596854620186</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>56.82852852010113</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>57.87813326497726</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>86.24858699809722</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>117.49692367571318</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>-18.737433666109247</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>-55.271673451753934</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>64.90226656523464</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>101.43650635087931</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>21.780736869661553</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>21.780736869661553</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>9.248166027495968</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-90.75183397250402</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-66.67418212795954</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-98.47411852815034</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>35.32435357573885</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>135.32435357573885</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>106.38012709110181</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>138.1800634912926</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>-27.383053227145588</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>-89.72711799461385</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>-47.96850142205816</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>-22.49543545135096</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>72.63233228901487</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>134.9763970564831</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>52.40917742774105</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>26.936111457033846</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>-40.30786156122823</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>-71.55619823884419</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>1.585715365987405</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0.5361106211112732</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>13.964525642405215</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>48.317430655667266</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>7.468207852714877</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>77.93733528541074</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>106.25519338478509</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>35.78606595208921</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>27.76915605006162</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>-6.583748963200427</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>11.456608209429247</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>12.506212954305374</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>47.37298447711568</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>78.62132115473163</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>-240.99334544724718</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>-277.52758523289185</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>28.328508930363842</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>64.86274871600853</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>15.233266971390973</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>15.233266971390973</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9.401622353236675</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-90.59837764676331</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-292.35728518397343</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-324.15722158416423</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>35.32435357573885</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>135.32435357573885</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>34.25565399296499</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>66.05559039315578</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>-27.43420533572582</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-89.77827010319407</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>-14.770782953483124</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>10.702283017224074</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>72.63233228901487</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>134.9763970564831</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>52.613785862062</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>27.140719891354802</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>-40.154405235487516</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>-71.40274191310348</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>-16.215218419935724</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>-17.264823164811858</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>13.913373533824974</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>48.266278547087026</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>39.3359714982037</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>109.80509893089956</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>3.6440635728259023</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>-66.82506385986999</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>27.76915605006162</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>-6.583748963200427</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>56.7773764115209</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>57.826981156397025</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>86.19743488951698</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>117.44577156713297</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>-18.686281557529004</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>-55.22052134317369</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>64.95341867381488</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>101.48765845945957</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>21.67843265250107</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>21.67843265250107</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9.350470244656439</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-90.64952975534355</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-66.77648634512003</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-98.57642274531082</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-127.28819960084054</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-27.288199600840564</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>111.08612108048376</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>142.8860574806746</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>-27.331901118565337</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>-89.6759658860336</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>-14.8730871706436</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>10.599978800063596</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>72.63233228901487</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>134.9763970564831</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>53.17645905644463</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>27.70339308573743</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-40.154405235487516</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>-71.40274191310348</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>-14.936415705429754</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>-15.986020450305885</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>36.21569287480912</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>70.56859788807118</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>39.43827571536417</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>109.90740314806003</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>3.541759355665422</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>-66.92736807703045</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>27.820308158641865</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>-6.532596854620186</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>56.82852852010113</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>57.87813326497726</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>86.19743488951698</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>117.44577156713297</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>-18.737433666109247</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>-55.271673451753934</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>64.90226656523464</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>101.43650635087931</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>21.985345303982506</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>21.985345303982506</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>9.299318136076204</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-90.70068186392378</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-66.77648634512003</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-98.57642274531082</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>35.27320146715861</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>135.2732014671586</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>112.16031536066879</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>143.9602517608596</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>41.77459757333738</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>-20.569467194130883</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>-99.63213108809943</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>-74.15906511739222</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>72.68348439759511</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>135.0275491650634</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>56.60365033132063</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>31.130584360613433</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>-59.54105438739805</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>-90.78939106501403</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>-14.834111488269276</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>-15.883716233145408</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>13.913373533824974</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>48.266278547087026</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>-9.156227435862759</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>61.31289999683312</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>3.5929114642456663</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>-66.87621596845021</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>27.718003941481385</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>-6.634901071780666</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>32.99164592170982</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>34.041250666585945</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>20.1600627124286</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>51.40839939004456</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>18.96167035752681</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>-17.572569428117873</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>65.00457078239512</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>101.53881056803979</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>22.087649521142982</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>22.087649521142982</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9.248166027495968</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-90.75183397250402</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-66.7253342365398</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-98.52527063673058</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>35.32435357573885</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>135.32435357573885</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>112.16031536066879</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>143.9602517608596</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-27.43420533572582</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>-89.77827010319407</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>-14.8730871706436</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>10.599978800063596</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>5.725374266062419</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>68.06943903353068</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>53.17645905644463</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>27.70339308573743</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-40.20555734406776</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-71.45389402168372</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>-14.885263596849512</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>-15.934868341725647</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>13.913373533824974</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>48.266278547087026</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>39.38712360678394</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>109.8562510394798</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>60.883273074113205</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>-9.585854358582676</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>43.779766035676396</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>9.426861022414341</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>56.82852852010113</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>57.87813326497726</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>86.19743488951698</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>117.44577156713297</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>17.17134655721845</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>-19.362893228426234</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>64.90226656523464</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>101.43650635087931</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>22.036497412562742</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>22.036497412562742</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-102.9284080889679</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-202.9284080889679</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-66.7253342365398</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-98.52527063673058</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>35.27320146715861</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>135.2732014671586</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>35.943673576112865</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>67.74360997630366</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-18.38028211702354</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-80.7243468844918</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-14.8730871706436</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>10.599978800063596</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>72.63233228901487</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>134.9763970564831</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>52.562633753481755</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>27.089567782774566</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-40.20555734406776</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>-71.45389402168372</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>-14.834111488269276</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>-15.883716233145408</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>14.015677750985454</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>48.368582764247506</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0.8184337372838221</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>71.28756116997968</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>3.5929114642456663</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>-66.87621596845021</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>27.66685183290114</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>-6.686053180360905</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>56.7773764115209</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>57.826981156397025</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>86.24858699809722</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>117.49692367571318</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>-18.737433666109247</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>-55.271673451753934</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>64.95341867381488</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>101.48765845945957</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>21.93419319540227</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>21.93419319540227</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>P/F</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
